--- a/experiment_results/SBFL_ONLY/Email/3Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Email/3Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -36312,10 +36312,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>24.69635627530364</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E2">
         <v>247</v>
@@ -36326,10 +36326,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1.214574898785425</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E3">
         <v>247</v>
@@ -36340,10 +36340,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>57.89473684210527</v>
+        <v>37.24696356275304</v>
       </c>
       <c r="E4">
         <v>247</v>
@@ -36357,10 +36357,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="D5">
-        <v>15.38461538461539</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E5">
         <v>247</v>
@@ -36371,10 +36371,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>24.69635627530364</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E6">
         <v>247</v>
@@ -36385,10 +36385,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>5.668016194331984</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E7">
         <v>247</v>
@@ -36402,10 +36402,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="D8">
-        <v>15.38461538461539</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E8">
         <v>247</v>
@@ -36416,10 +36416,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>6.477732793522267</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E9">
         <v>247</v>
@@ -36430,10 +36430,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>57.89473684210527</v>
+        <v>37.24696356275304</v>
       </c>
       <c r="E10">
         <v>247</v>
@@ -36447,10 +36447,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11.33603238866397</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E11">
         <v>247</v>
@@ -36461,10 +36461,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="D12">
-        <v>9.7165991902834</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E12">
         <v>247</v>
@@ -36475,10 +36475,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>37.24696356275304</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E13">
         <v>247</v>
@@ -36492,10 +36492,10 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D14">
-        <v>19.83805668016194</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E14">
         <v>247</v>
@@ -36506,10 +36506,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>2.42914979757085</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E15">
         <v>247</v>
@@ -36520,10 +36520,10 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E16">
         <v>247</v>
@@ -36537,10 +36537,10 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>4.8582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E17">
         <v>247</v>
@@ -36551,10 +36551,10 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D18">
-        <v>58.70445344129555</v>
+        <v>38.05668016194332</v>
       </c>
       <c r="E18">
         <v>247</v>
@@ -36565,10 +36565,10 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>54.25101214574899</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E19">
         <v>247</v>
@@ -36582,10 +36582,10 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D20">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E20">
         <v>247</v>
@@ -36596,10 +36596,10 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>7.692307692307693</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E21">
         <v>247</v>
@@ -36610,10 +36610,10 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>17.00404858299595</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E22">
         <v>247</v>
@@ -36627,10 +36627,10 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>5.263157894736842</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E23">
         <v>247</v>
@@ -36641,10 +36641,10 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>20.24291497975709</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E24">
         <v>247</v>
@@ -36655,10 +36655,10 @@
         <v>16</v>
       </c>
       <c r="C25">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>26.72064777327935</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="E25">
         <v>247</v>
@@ -36672,10 +36672,10 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>1.619433198380567</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E26">
         <v>247</v>
@@ -36686,10 +36686,10 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>17.81376518218623</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E27">
         <v>247</v>
@@ -36700,10 +36700,10 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>2.42914979757085</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E28">
         <v>247</v>
@@ -36717,10 +36717,10 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D29">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E29">
         <v>247</v>
@@ -36731,10 +36731,10 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D30">
-        <v>16.59919028340081</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E30">
         <v>247</v>
@@ -36745,10 +36745,10 @@
         <v>16</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>12.14574898785425</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E31">
         <v>247</v>
@@ -36762,10 +36762,10 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="D32">
-        <v>15.38461538461539</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E32">
         <v>247</v>
@@ -36776,10 +36776,10 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>52.63157894736842</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="E33">
         <v>247</v>
@@ -36790,10 +36790,10 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>6.477732793522267</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E34">
         <v>247</v>
@@ -36807,10 +36807,10 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D35">
-        <v>19.83805668016194</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E35">
         <v>247</v>
@@ -36821,10 +36821,10 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D36">
-        <v>13.76518218623482</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="E36">
         <v>247</v>
@@ -36835,10 +36835,10 @@
         <v>16</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>1.619433198380567</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E37">
         <v>247</v>
@@ -36852,10 +36852,10 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D38">
-        <v>20.24291497975709</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E38">
         <v>247</v>
@@ -36866,10 +36866,10 @@
         <v>25</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>14.5748987854251</v>
+        <v>17.00404858299595</v>
       </c>
       <c r="E39">
         <v>247</v>
@@ -36880,10 +36880,10 @@
         <v>16</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>1.619433198380567</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E40">
         <v>247</v>
@@ -36897,10 +36897,10 @@
         <v>15</v>
       </c>
       <c r="C41">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>52.63157894736842</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="E41">
         <v>247</v>
@@ -36911,10 +36911,10 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>4.8582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E42">
         <v>247</v>
@@ -36925,10 +36925,10 @@
         <v>16</v>
       </c>
       <c r="C43">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>55.87044534412956</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="E43">
         <v>247</v>
@@ -36942,10 +36942,10 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D44">
-        <v>22.67206477732794</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E44">
         <v>247</v>
@@ -36956,10 +36956,10 @@
         <v>15</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>2.42914979757085</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E45">
         <v>247</v>
@@ -36970,10 +36970,10 @@
         <v>25</v>
       </c>
       <c r="C46">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>17.00404858299595</v>
+        <v>17.81376518218623</v>
       </c>
       <c r="E46">
         <v>247</v>
@@ -36987,10 +36987,10 @@
         <v>13</v>
       </c>
       <c r="C47">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>44.93927125506073</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E47">
         <v>247</v>
@@ -37001,10 +37001,10 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>9.311740890688259</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E48">
         <v>247</v>
@@ -37015,10 +37015,10 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="D49">
-        <v>56.2753036437247</v>
+        <v>14.5748987854251</v>
       </c>
       <c r="E49">
         <v>247</v>
@@ -37032,10 +37032,10 @@
         <v>15</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>1.619433198380567</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E50">
         <v>247</v>
@@ -37046,10 +37046,10 @@
         <v>25</v>
       </c>
       <c r="C51">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D51">
-        <v>17.00404858299595</v>
+        <v>19.4331983805668</v>
       </c>
       <c r="E51">
         <v>247</v>
@@ -37060,10 +37060,10 @@
         <v>16</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>2.42914979757085</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E52">
         <v>247</v>
@@ -37077,10 +37077,10 @@
         <v>13</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>11.33603238866397</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E53">
         <v>247</v>
@@ -37091,10 +37091,10 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="D54">
-        <v>9.7165991902834</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E54">
         <v>247</v>
@@ -37105,10 +37105,10 @@
         <v>25</v>
       </c>
       <c r="C55">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="D55">
-        <v>55.06072874493927</v>
+        <v>17.00404858299595</v>
       </c>
       <c r="E55">
         <v>247</v>
@@ -37122,10 +37122,10 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>52.63157894736842</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="E56">
         <v>247</v>
@@ -37136,10 +37136,10 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>4.8582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E57">
         <v>247</v>
@@ -37150,10 +37150,10 @@
         <v>25</v>
       </c>
       <c r="C58">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="D58">
-        <v>68.42105263157895</v>
+        <v>32.79352226720648</v>
       </c>
       <c r="E58">
         <v>247</v>
@@ -37167,10 +37167,10 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>4.8582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E59">
         <v>247</v>
@@ -37181,10 +37181,10 @@
         <v>25</v>
       </c>
       <c r="C60">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="D60">
-        <v>63.56275303643725</v>
+        <v>29.55465587044534</v>
       </c>
       <c r="E60">
         <v>247</v>
@@ -37195,10 +37195,10 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="D61">
-        <v>57.48987854251012</v>
+        <v>34.0080971659919</v>
       </c>
       <c r="E61">
         <v>247</v>
@@ -37212,10 +37212,10 @@
         <v>13</v>
       </c>
       <c r="C62">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>5.263157894736842</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E62">
         <v>247</v>
@@ -37226,10 +37226,10 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D63">
-        <v>38.05668016194332</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="E63">
         <v>247</v>
@@ -37240,10 +37240,10 @@
         <v>16</v>
       </c>
       <c r="C64">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>25.10121457489878</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E64">
         <v>247</v>
@@ -37257,10 +37257,10 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="D65">
-        <v>15.38461538461539</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E65">
         <v>247</v>
@@ -37271,10 +37271,10 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>6.477732793522267</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E66">
         <v>247</v>
@@ -37285,10 +37285,10 @@
         <v>25</v>
       </c>
       <c r="C67">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="D67">
-        <v>65.9919028340081</v>
+        <v>30.36437246963563</v>
       </c>
       <c r="E67">
         <v>247</v>
@@ -37302,10 +37302,10 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>24.69635627530364</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E68">
         <v>247</v>
@@ -37316,10 +37316,10 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>4.8582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E69">
         <v>247</v>
@@ -37330,10 +37330,10 @@
         <v>16</v>
       </c>
       <c r="C70">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="D70">
-        <v>54.65587044534414</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="E70">
         <v>247</v>
@@ -37347,10 +37347,10 @@
         <v>13</v>
       </c>
       <c r="C71">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D71">
-        <v>44.93927125506073</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E71">
         <v>247</v>
@@ -37361,10 +37361,10 @@
         <v>7</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>8.502024291497975</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E72">
         <v>247</v>
@@ -37375,10 +37375,10 @@
         <v>25</v>
       </c>
       <c r="C73">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="D73">
-        <v>63.1578947368421</v>
+        <v>22.26720647773279</v>
       </c>
       <c r="E73">
         <v>247</v>
@@ -37392,10 +37392,10 @@
         <v>13</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>5.263157894736842</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E74">
         <v>247</v>
@@ -37406,10 +37406,10 @@
         <v>6</v>
       </c>
       <c r="C75">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D75">
-        <v>26.31578947368421</v>
+        <v>35.22267206477733</v>
       </c>
       <c r="E75">
         <v>247</v>
@@ -37420,10 +37420,10 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D76">
-        <v>38.8663967611336</v>
+        <v>21.45748987854251</v>
       </c>
       <c r="E76">
         <v>247</v>
@@ -37437,10 +37437,10 @@
         <v>13</v>
       </c>
       <c r="C77">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D77">
-        <v>44.93927125506073</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E77">
         <v>247</v>
@@ -37451,10 +37451,10 @@
         <v>7</v>
       </c>
       <c r="C78">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>8.502024291497975</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E78">
         <v>247</v>
@@ -37465,10 +37465,10 @@
         <v>8</v>
       </c>
       <c r="C79">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="D79">
-        <v>57.08502024291497</v>
+        <v>28.34008097165992</v>
       </c>
       <c r="E79">
         <v>247</v>
@@ -37482,10 +37482,10 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D80">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E80">
         <v>247</v>
@@ -37496,10 +37496,10 @@
         <v>15</v>
       </c>
       <c r="C81">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D81">
-        <v>11.33603238866397</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E81">
         <v>247</v>
@@ -37510,10 +37510,10 @@
         <v>16</v>
       </c>
       <c r="C82">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>12.14574898785425</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E82">
         <v>247</v>
@@ -37527,10 +37527,10 @@
         <v>6</v>
       </c>
       <c r="C83">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D83">
-        <v>22.26720647773279</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E83">
         <v>247</v>
@@ -37541,10 +37541,10 @@
         <v>15</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D84">
-        <v>2.42914979757085</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E84">
         <v>247</v>
@@ -37555,10 +37555,10 @@
         <v>8</v>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D85">
-        <v>12.55060728744939</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E85">
         <v>247</v>
@@ -37572,10 +37572,10 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D86">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E86">
         <v>247</v>
@@ -37586,10 +37586,10 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="D87">
-        <v>19.02834008097166</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E87">
         <v>247</v>
@@ -37600,10 +37600,10 @@
         <v>8</v>
       </c>
       <c r="C88">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D88">
-        <v>12.95546558704453</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="E88">
         <v>247</v>
@@ -37617,10 +37617,10 @@
         <v>13</v>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>4.453441295546559</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E89">
         <v>247</v>
@@ -37631,10 +37631,10 @@
         <v>25</v>
       </c>
       <c r="C90">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="D90">
-        <v>51.82186234817814</v>
+        <v>17.00404858299595</v>
       </c>
       <c r="E90">
         <v>247</v>
@@ -37645,10 +37645,10 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D91">
-        <v>34.0080971659919</v>
+        <v>21.45748987854251</v>
       </c>
       <c r="E91">
         <v>247</v>
@@ -37662,10 +37662,10 @@
         <v>13</v>
       </c>
       <c r="C92">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D92">
-        <v>11.33603238866397</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E92">
         <v>247</v>
@@ -37676,10 +37676,10 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="D93">
-        <v>9.7165991902834</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E93">
         <v>247</v>
@@ -37690,10 +37690,10 @@
         <v>16</v>
       </c>
       <c r="C94">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D94">
-        <v>25.91093117408907</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E94">
         <v>247</v>
@@ -37707,10 +37707,10 @@
         <v>7</v>
       </c>
       <c r="C95">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>4.8582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E95">
         <v>247</v>
@@ -37721,10 +37721,10 @@
         <v>25</v>
       </c>
       <c r="C96">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="D96">
-        <v>66.80161943319838</v>
+        <v>31.17408906882591</v>
       </c>
       <c r="E96">
         <v>247</v>
@@ -37735,10 +37735,10 @@
         <v>16</v>
       </c>
       <c r="C97">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="D97">
-        <v>54.25101214574899</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="E97">
         <v>247</v>
@@ -37752,10 +37752,10 @@
         <v>15</v>
       </c>
       <c r="C98">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D98">
-        <v>52.63157894736842</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="E98">
         <v>247</v>
@@ -37766,10 +37766,10 @@
         <v>7</v>
       </c>
       <c r="C99">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>4.8582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E99">
         <v>247</v>
@@ -37780,10 +37780,10 @@
         <v>8</v>
       </c>
       <c r="C100">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="D100">
-        <v>58.70445344129555</v>
+        <v>38.8663967611336</v>
       </c>
       <c r="E100">
         <v>247</v>
@@ -37797,10 +37797,10 @@
         <v>25</v>
       </c>
       <c r="C101">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D101">
-        <v>14.17004048582996</v>
+        <v>17.40890688259109</v>
       </c>
       <c r="E101">
         <v>247</v>
@@ -37811,10 +37811,10 @@
         <v>8</v>
       </c>
       <c r="C102">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D102">
-        <v>9.311740890688259</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E102">
         <v>247</v>
@@ -37825,10 +37825,10 @@
         <v>16</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D103">
-        <v>1.619433198380567</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E103">
         <v>247</v>
@@ -37842,10 +37842,10 @@
         <v>13</v>
       </c>
       <c r="C104">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>5.263157894736842</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E104">
         <v>247</v>
@@ -37856,10 +37856,10 @@
         <v>25</v>
       </c>
       <c r="C105">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D105">
-        <v>56.68016194331984</v>
+        <v>17.81376518218623</v>
       </c>
       <c r="E105">
         <v>247</v>
@@ -37870,10 +37870,10 @@
         <v>16</v>
       </c>
       <c r="C106">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D106">
-        <v>25.10121457489878</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E106">
         <v>247</v>
@@ -37887,10 +37887,10 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D107">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E107">
         <v>247</v>
@@ -37901,10 +37901,10 @@
         <v>6</v>
       </c>
       <c r="C108">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="D108">
-        <v>19.02834008097166</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E108">
         <v>247</v>
@@ -37915,10 +37915,10 @@
         <v>15</v>
       </c>
       <c r="C109">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D109">
-        <v>9.311740890688259</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E109">
         <v>247</v>
@@ -37932,10 +37932,10 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D110">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E110">
         <v>247</v>
@@ -37946,10 +37946,10 @@
         <v>15</v>
       </c>
       <c r="C111">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D111">
-        <v>7.692307692307693</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E111">
         <v>247</v>
@@ -37960,10 +37960,10 @@
         <v>25</v>
       </c>
       <c r="C112">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D112">
-        <v>16.19433198380567</v>
+        <v>18.62348178137652</v>
       </c>
       <c r="E112">
         <v>247</v>
@@ -37977,10 +37977,10 @@
         <v>15</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D113">
-        <v>1.619433198380567</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E113">
         <v>247</v>
@@ -37991,10 +37991,10 @@
         <v>25</v>
       </c>
       <c r="C114">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D114">
-        <v>16.59919028340081</v>
+        <v>18.21862348178137</v>
       </c>
       <c r="E114">
         <v>247</v>
@@ -38005,10 +38005,10 @@
         <v>8</v>
       </c>
       <c r="C115">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D115">
-        <v>11.74089068825911</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="E115">
         <v>247</v>
@@ -38022,10 +38022,10 @@
         <v>13</v>
       </c>
       <c r="C116">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D116">
-        <v>44.93927125506073</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E116">
         <v>247</v>
@@ -38036,10 +38036,10 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="D117">
-        <v>13.36032388663968</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E117">
         <v>247</v>
@@ -38050,10 +38050,10 @@
         <v>7</v>
       </c>
       <c r="C118">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>14.5748987854251</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E118">
         <v>247</v>
@@ -38067,10 +38067,10 @@
         <v>13</v>
       </c>
       <c r="C119">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="D119">
-        <v>46.15384615384615</v>
+        <v>11.33603238866397</v>
       </c>
       <c r="E119">
         <v>247</v>
@@ -38081,10 +38081,10 @@
         <v>6</v>
       </c>
       <c r="C120">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D120">
-        <v>24.69635627530364</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E120">
         <v>247</v>
@@ -38095,10 +38095,10 @@
         <v>7</v>
       </c>
       <c r="C121">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>8.502024291497975</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E121">
         <v>247</v>
@@ -38112,10 +38112,10 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D122">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E122">
         <v>247</v>
@@ -38126,10 +38126,10 @@
         <v>8</v>
       </c>
       <c r="C123">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D123">
-        <v>14.5748987854251</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="E123">
         <v>247</v>
@@ -38140,10 +38140,10 @@
         <v>16</v>
       </c>
       <c r="C124">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D124">
-        <v>11.33603238866397</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E124">
         <v>247</v>
@@ -38157,10 +38157,10 @@
         <v>13</v>
       </c>
       <c r="C125">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="D125">
-        <v>45.74898785425101</v>
+        <v>11.33603238866397</v>
       </c>
       <c r="E125">
         <v>247</v>
@@ -38171,10 +38171,10 @@
         <v>15</v>
       </c>
       <c r="C126">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="D126">
-        <v>55.06072874493927</v>
+        <v>12.55060728744939</v>
       </c>
       <c r="E126">
         <v>247</v>
@@ -38185,10 +38185,10 @@
         <v>7</v>
       </c>
       <c r="C127">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>8.502024291497975</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E127">
         <v>247</v>
@@ -38202,10 +38202,10 @@
         <v>13</v>
       </c>
       <c r="C128">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D128">
-        <v>6.072874493927126</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E128">
         <v>247</v>
@@ -38216,10 +38216,10 @@
         <v>6</v>
       </c>
       <c r="C129">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D129">
-        <v>27.93522267206478</v>
+        <v>36.03238866396762</v>
       </c>
       <c r="E129">
         <v>247</v>
@@ -38230,10 +38230,10 @@
         <v>15</v>
       </c>
       <c r="C130">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D130">
-        <v>20.24291497975709</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E130">
         <v>247</v>
@@ -38247,10 +38247,10 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="D131">
-        <v>14.97975708502024</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E131">
         <v>247</v>
@@ -38261,10 +38261,10 @@
         <v>7</v>
       </c>
       <c r="C132">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>7.28744939271255</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E132">
         <v>247</v>
@@ -38275,10 +38275,10 @@
         <v>16</v>
       </c>
       <c r="C133">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="D133">
-        <v>54.25101214574899</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E133">
         <v>247</v>
@@ -38292,10 +38292,10 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="D134">
-        <v>2.834008097165992</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E134">
         <v>247</v>
@@ -38306,10 +38306,10 @@
         <v>6</v>
       </c>
       <c r="C135">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D135">
-        <v>19.4331983805668</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E135">
         <v>247</v>
@@ -38320,10 +38320,10 @@
         <v>25</v>
       </c>
       <c r="C136">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D136">
-        <v>13.76518218623482</v>
+        <v>16.19433198380567</v>
       </c>
       <c r="E136">
         <v>247</v>
@@ -38337,10 +38337,10 @@
         <v>6</v>
       </c>
       <c r="C137">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D137">
-        <v>24.69635627530364</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E137">
         <v>247</v>
@@ -38351,10 +38351,10 @@
         <v>7</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E138">
         <v>247</v>
@@ -38365,10 +38365,10 @@
         <v>25</v>
       </c>
       <c r="C139">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="D139">
-        <v>66.80161943319838</v>
+        <v>30.36437246963563</v>
       </c>
       <c r="E139">
         <v>247</v>
@@ -38382,10 +38382,10 @@
         <v>13</v>
       </c>
       <c r="C140">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D140">
-        <v>5.263157894736842</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E140">
         <v>247</v>
@@ -38396,10 +38396,10 @@
         <v>6</v>
       </c>
       <c r="C141">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D141">
-        <v>26.31578947368421</v>
+        <v>35.22267206477733</v>
       </c>
       <c r="E141">
         <v>247</v>
@@ -38410,10 +38410,10 @@
         <v>25</v>
       </c>
       <c r="C142">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="D142">
-        <v>55.06072874493927</v>
+        <v>17.00404858299595</v>
       </c>
       <c r="E142">
         <v>247</v>
@@ -38427,10 +38427,10 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D143">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E143">
         <v>247</v>
@@ -38441,10 +38441,10 @@
         <v>25</v>
       </c>
       <c r="C144">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D144">
-        <v>13.36032388663968</v>
+        <v>16.59919028340081</v>
       </c>
       <c r="E144">
         <v>247</v>
@@ -38455,10 +38455,10 @@
         <v>8</v>
       </c>
       <c r="C145">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D145">
-        <v>12.14574898785425</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E145">
         <v>247</v>
@@ -38472,10 +38472,10 @@
         <v>13</v>
       </c>
       <c r="C146">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D146">
-        <v>11.33603238866397</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E146">
         <v>247</v>
@@ -38486,10 +38486,10 @@
         <v>10</v>
       </c>
       <c r="C147">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="D147">
-        <v>9.7165991902834</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E147">
         <v>247</v>
@@ -38500,10 +38500,10 @@
         <v>15</v>
       </c>
       <c r="C148">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D148">
-        <v>21.05263157894737</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E148">
         <v>247</v>
@@ -38517,10 +38517,10 @@
         <v>6</v>
       </c>
       <c r="C149">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D149">
-        <v>25.50607287449393</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E149">
         <v>247</v>
@@ -38531,10 +38531,10 @@
         <v>15</v>
       </c>
       <c r="C150">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="D150">
-        <v>53.44129554655871</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="E150">
         <v>247</v>
@@ -38545,10 +38545,10 @@
         <v>7</v>
       </c>
       <c r="C151">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>4.8582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E151">
         <v>247</v>
@@ -38562,10 +38562,10 @@
         <v>13</v>
       </c>
       <c r="C152">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D152">
-        <v>12.14574898785425</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E152">
         <v>247</v>
@@ -38576,10 +38576,10 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="D153">
-        <v>10.52631578947368</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E153">
         <v>247</v>
@@ -38590,10 +38590,10 @@
         <v>6</v>
       </c>
       <c r="C154">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D154">
-        <v>27.12550607287449</v>
+        <v>35.22267206477733</v>
       </c>
       <c r="E154">
         <v>247</v>
@@ -38607,10 +38607,10 @@
         <v>13</v>
       </c>
       <c r="C155">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D155">
-        <v>5.263157894736842</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E155">
         <v>247</v>
@@ -38621,10 +38621,10 @@
         <v>15</v>
       </c>
       <c r="C156">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>20.24291497975709</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E156">
         <v>247</v>
@@ -38635,10 +38635,10 @@
         <v>25</v>
       </c>
       <c r="C157">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="D157">
-        <v>58.2995951417004</v>
+        <v>17.81376518218623</v>
       </c>
       <c r="E157">
         <v>247</v>
@@ -38652,10 +38652,10 @@
         <v>13</v>
       </c>
       <c r="C158">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D158">
-        <v>6.072874493927126</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E158">
         <v>247</v>
@@ -38666,10 +38666,10 @@
         <v>6</v>
       </c>
       <c r="C159">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D159">
-        <v>27.12550607287449</v>
+        <v>35.22267206477733</v>
       </c>
       <c r="E159">
         <v>247</v>
@@ -38680,10 +38680,10 @@
         <v>16</v>
       </c>
       <c r="C160">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D160">
-        <v>25.10121457489878</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E160">
         <v>247</v>
@@ -38697,10 +38697,10 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D161">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E161">
         <v>247</v>
@@ -38711,10 +38711,10 @@
         <v>25</v>
       </c>
       <c r="C162">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D162">
-        <v>13.76518218623482</v>
+        <v>17.81376518218623</v>
       </c>
       <c r="E162">
         <v>247</v>
@@ -38725,10 +38725,10 @@
         <v>16</v>
       </c>
       <c r="C163">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D163">
-        <v>11.33603238866397</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E163">
         <v>247</v>
@@ -38742,10 +38742,10 @@
         <v>6</v>
       </c>
       <c r="C164">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D164">
-        <v>22.26720647773279</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E164">
         <v>247</v>
@@ -38756,10 +38756,10 @@
         <v>25</v>
       </c>
       <c r="C165">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D165">
-        <v>9.7165991902834</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="E165">
         <v>247</v>
@@ -38770,10 +38770,10 @@
         <v>8</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D166">
-        <v>0.8097165991902834</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="E166">
         <v>247</v>
@@ -38787,10 +38787,10 @@
         <v>13</v>
       </c>
       <c r="C167">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D167">
-        <v>5.263157894736842</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E167">
         <v>247</v>
@@ -38801,10 +38801,10 @@
         <v>15</v>
       </c>
       <c r="C168">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D168">
-        <v>20.24291497975709</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E168">
         <v>247</v>
@@ -38815,10 +38815,10 @@
         <v>8</v>
       </c>
       <c r="C169">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D169">
-        <v>39.27125506072874</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="E169">
         <v>247</v>
